--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4485"/>
+  <dimension ref="A1:E4488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68380,6 +68380,57 @@
         <v>561519</v>
       </c>
     </row>
+    <row r="4486">
+      <c r="A4486" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B4486" t="n">
+        <v>531417</v>
+      </c>
+      <c r="C4486" t="n">
+        <v>561519</v>
+      </c>
+      <c r="D4486" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4486" t="n">
+        <v>561519</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B4487" t="n">
+        <v>561519</v>
+      </c>
+      <c r="C4487" t="n">
+        <v>537441</v>
+      </c>
+      <c r="D4487" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4487" t="n">
+        <v>537441</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B4488" t="n">
+        <v>537441</v>
+      </c>
+      <c r="C4488" t="n">
+        <v>537869</v>
+      </c>
+      <c r="D4488" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4488" t="n">
+        <v>537869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4488"/>
+  <dimension ref="A1:E4497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68431,6 +68431,159 @@
         <v>537869</v>
       </c>
     </row>
+    <row r="4489">
+      <c r="A4489" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B4489" t="n">
+        <v>537441</v>
+      </c>
+      <c r="C4489" t="n">
+        <v>537869</v>
+      </c>
+      <c r="D4489" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4489" t="n">
+        <v>537869</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B4490" t="n">
+        <v>537869</v>
+      </c>
+      <c r="C4490" t="n">
+        <v>532834</v>
+      </c>
+      <c r="D4490" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4490" t="n">
+        <v>532834</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4491" t="n">
+        <v>532834</v>
+      </c>
+      <c r="C4491" t="n">
+        <v>545014</v>
+      </c>
+      <c r="D4491" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4491" t="n">
+        <v>545014</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B4492" t="n">
+        <v>545014</v>
+      </c>
+      <c r="C4492" t="n">
+        <v>573898</v>
+      </c>
+      <c r="D4492" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4492" t="n">
+        <v>573898</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B4493" t="n">
+        <v>573898</v>
+      </c>
+      <c r="C4493" t="n">
+        <v>549897</v>
+      </c>
+      <c r="D4493" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4493" t="n">
+        <v>549897</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B4494" t="n">
+        <v>549897</v>
+      </c>
+      <c r="C4494" t="n">
+        <v>551631</v>
+      </c>
+      <c r="D4494" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4494" t="n">
+        <v>551631</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B4495" t="n">
+        <v>551631</v>
+      </c>
+      <c r="C4495" t="n">
+        <v>549904</v>
+      </c>
+      <c r="D4495" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4495" t="n">
+        <v>549904</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B4496" t="n">
+        <v>549904</v>
+      </c>
+      <c r="C4496" t="n">
+        <v>501828</v>
+      </c>
+      <c r="D4496" t="n">
+        <v>402394</v>
+      </c>
+      <c r="E4496" t="n">
+        <v>501828</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B4497" t="n">
+        <v>501828</v>
+      </c>
+      <c r="C4497" t="n">
+        <v>458113</v>
+      </c>
+      <c r="D4497" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4497" t="n">
+        <v>458113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4497"/>
+  <dimension ref="A1:E4499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68584,6 +68584,40 @@
         <v>458113</v>
       </c>
     </row>
+    <row r="4498">
+      <c r="A4498" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B4498" t="n">
+        <v>501828</v>
+      </c>
+      <c r="C4498" t="n">
+        <v>458113</v>
+      </c>
+      <c r="D4498" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4498" t="n">
+        <v>458113</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B4499" t="n">
+        <v>458113</v>
+      </c>
+      <c r="C4499" t="n">
+        <v>460926</v>
+      </c>
+      <c r="D4499" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4499" t="n">
+        <v>460926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4499"/>
+  <dimension ref="A1:E4503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68618,6 +68618,74 @@
         <v>460926</v>
       </c>
     </row>
+    <row r="4500">
+      <c r="A4500" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B4500" t="n">
+        <v>458113</v>
+      </c>
+      <c r="C4500" t="n">
+        <v>460926</v>
+      </c>
+      <c r="D4500" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4500" t="n">
+        <v>460926</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4501" t="n">
+        <v>460926</v>
+      </c>
+      <c r="C4501" t="n">
+        <v>445120</v>
+      </c>
+      <c r="D4501" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4501" t="n">
+        <v>445120</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4502" t="n">
+        <v>445120</v>
+      </c>
+      <c r="C4502" t="n">
+        <v>441481</v>
+      </c>
+      <c r="D4502" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4502" t="n">
+        <v>441481</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B4503" t="n">
+        <v>441481</v>
+      </c>
+      <c r="C4503" t="n">
+        <v>451335</v>
+      </c>
+      <c r="D4503" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4503" t="n">
+        <v>451335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4503"/>
+  <dimension ref="A1:E4515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68686,6 +68686,210 @@
         <v>451335</v>
       </c>
     </row>
+    <row r="4504">
+      <c r="A4504" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B4504" t="n">
+        <v>441481</v>
+      </c>
+      <c r="C4504" t="n">
+        <v>451335</v>
+      </c>
+      <c r="D4504" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4504" t="n">
+        <v>451335</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B4505" t="n">
+        <v>451335</v>
+      </c>
+      <c r="C4505" t="n">
+        <v>458998</v>
+      </c>
+      <c r="D4505" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4505" t="n">
+        <v>458998</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B4506" t="n">
+        <v>458998</v>
+      </c>
+      <c r="C4506" t="n">
+        <v>432262</v>
+      </c>
+      <c r="D4506" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4506" t="n">
+        <v>432262</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B4507" t="n">
+        <v>432262</v>
+      </c>
+      <c r="C4507" t="n">
+        <v>450098</v>
+      </c>
+      <c r="D4507" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4507" t="n">
+        <v>450098</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B4508" t="n">
+        <v>450098</v>
+      </c>
+      <c r="C4508" t="n">
+        <v>451362</v>
+      </c>
+      <c r="D4508" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4508" t="n">
+        <v>451362</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B4509" t="n">
+        <v>451362</v>
+      </c>
+      <c r="C4509" t="n">
+        <v>463127</v>
+      </c>
+      <c r="D4509" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4509" t="n">
+        <v>463127</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B4510" t="n">
+        <v>463127</v>
+      </c>
+      <c r="C4510" t="n">
+        <v>398438</v>
+      </c>
+      <c r="D4510" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4510" t="n">
+        <v>398438</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B4511" t="n">
+        <v>463127</v>
+      </c>
+      <c r="C4511" t="n">
+        <v>398438</v>
+      </c>
+      <c r="D4511" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4511" t="n">
+        <v>398438</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B4512" t="n">
+        <v>398438</v>
+      </c>
+      <c r="C4512" t="n">
+        <v>384814</v>
+      </c>
+      <c r="D4512" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4512" t="n">
+        <v>384814</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B4513" t="n">
+        <v>384814</v>
+      </c>
+      <c r="C4513" t="n">
+        <v>408836</v>
+      </c>
+      <c r="D4513" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4513" t="n">
+        <v>408836</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B4514" t="n">
+        <v>408836</v>
+      </c>
+      <c r="C4514" t="n">
+        <v>404968</v>
+      </c>
+      <c r="D4514" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4514" t="n">
+        <v>404968</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B4515" t="n">
+        <v>404968</v>
+      </c>
+      <c r="C4515" t="n">
+        <v>415598</v>
+      </c>
+      <c r="D4515" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4515" t="n">
+        <v>415598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4515"/>
+  <dimension ref="A1:E4535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68890,6 +68890,346 @@
         <v>415598</v>
       </c>
     </row>
+    <row r="4516">
+      <c r="A4516" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B4516" t="n">
+        <v>404968</v>
+      </c>
+      <c r="C4516" t="n">
+        <v>415598</v>
+      </c>
+      <c r="D4516" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4516" t="n">
+        <v>415598</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B4517" t="n">
+        <v>415598</v>
+      </c>
+      <c r="C4517" t="n">
+        <v>441138</v>
+      </c>
+      <c r="D4517" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4517" t="n">
+        <v>441138</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4518" t="n">
+        <v>441138</v>
+      </c>
+      <c r="C4518" t="n">
+        <v>416031</v>
+      </c>
+      <c r="D4518" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4518" t="n">
+        <v>416031</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B4519" t="n">
+        <v>416031</v>
+      </c>
+      <c r="C4519" t="n">
+        <v>438914</v>
+      </c>
+      <c r="D4519" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4519" t="n">
+        <v>438914</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B4520" t="n">
+        <v>438914</v>
+      </c>
+      <c r="C4520" t="n">
+        <v>461257</v>
+      </c>
+      <c r="D4520" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4520" t="n">
+        <v>461257</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B4521" t="n">
+        <v>461257</v>
+      </c>
+      <c r="C4521" t="n">
+        <v>472203</v>
+      </c>
+      <c r="D4521" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4521" t="n">
+        <v>472203</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B4522" t="n">
+        <v>472203</v>
+      </c>
+      <c r="C4522" t="n">
+        <v>500010</v>
+      </c>
+      <c r="D4522" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4522" t="n">
+        <v>500010</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B4523" t="n">
+        <v>500010</v>
+      </c>
+      <c r="C4523" t="n">
+        <v>500702</v>
+      </c>
+      <c r="D4523" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4523" t="n">
+        <v>500702</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4524" t="n">
+        <v>500702</v>
+      </c>
+      <c r="C4524" t="n">
+        <v>541843</v>
+      </c>
+      <c r="D4524" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4524" t="n">
+        <v>541843</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4525" t="n">
+        <v>500702</v>
+      </c>
+      <c r="C4525" t="n">
+        <v>541843</v>
+      </c>
+      <c r="D4525" t="n">
+        <v>501828</v>
+      </c>
+      <c r="E4525" t="n">
+        <v>541843</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B4526" t="n">
+        <v>541843</v>
+      </c>
+      <c r="C4526" t="n">
+        <v>446118</v>
+      </c>
+      <c r="D4526" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4526" t="n">
+        <v>446118</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B4527" t="n">
+        <v>446118</v>
+      </c>
+      <c r="C4527" t="n">
+        <v>488303</v>
+      </c>
+      <c r="D4527" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4527" t="n">
+        <v>488303</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B4528" t="n">
+        <v>488303</v>
+      </c>
+      <c r="C4528" t="n">
+        <v>481552</v>
+      </c>
+      <c r="D4528" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4528" t="n">
+        <v>481552</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B4529" t="n">
+        <v>481552</v>
+      </c>
+      <c r="C4529" t="n">
+        <v>509104</v>
+      </c>
+      <c r="D4529" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4529" t="n">
+        <v>509104</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B4530" t="n">
+        <v>481552</v>
+      </c>
+      <c r="C4530" t="n">
+        <v>509104</v>
+      </c>
+      <c r="D4530" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4530" t="n">
+        <v>509104</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B4531" t="n">
+        <v>509104</v>
+      </c>
+      <c r="C4531" t="n">
+        <v>509313</v>
+      </c>
+      <c r="D4531" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4531" t="n">
+        <v>509313</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B4532" t="n">
+        <v>509313</v>
+      </c>
+      <c r="C4532" t="n">
+        <v>525312</v>
+      </c>
+      <c r="D4532" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4532" t="n">
+        <v>525312</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B4533" t="n">
+        <v>525312</v>
+      </c>
+      <c r="C4533" t="n">
+        <v>550831</v>
+      </c>
+      <c r="D4533" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4533" t="n">
+        <v>550831</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B4534" t="n">
+        <v>550831</v>
+      </c>
+      <c r="C4534" t="n">
+        <v>537364</v>
+      </c>
+      <c r="D4534" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4534" t="n">
+        <v>537364</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B4535" t="n">
+        <v>537364</v>
+      </c>
+      <c r="C4535" t="n">
+        <v>582843</v>
+      </c>
+      <c r="D4535" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4535" t="n">
+        <v>582843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4535"/>
+  <dimension ref="A1:E4561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69230,6 +69230,448 @@
         <v>582843</v>
       </c>
     </row>
+    <row r="4536">
+      <c r="A4536" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B4536" t="n">
+        <v>537364</v>
+      </c>
+      <c r="C4536" t="n">
+        <v>582843</v>
+      </c>
+      <c r="D4536" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4536" t="n">
+        <v>582843</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B4537" t="n">
+        <v>582843</v>
+      </c>
+      <c r="C4537" t="n">
+        <v>632855</v>
+      </c>
+      <c r="D4537" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4537" t="n">
+        <v>632855</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B4538" t="n">
+        <v>632855</v>
+      </c>
+      <c r="C4538" t="n">
+        <v>664013</v>
+      </c>
+      <c r="D4538" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4538" t="n">
+        <v>664013</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B4539" t="n">
+        <v>664013</v>
+      </c>
+      <c r="C4539" t="n">
+        <v>674935</v>
+      </c>
+      <c r="D4539" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4539" t="n">
+        <v>674935</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B4540" t="n">
+        <v>674935</v>
+      </c>
+      <c r="C4540" t="n">
+        <v>661717</v>
+      </c>
+      <c r="D4540" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4540" t="n">
+        <v>661717</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B4541" t="n">
+        <v>661717</v>
+      </c>
+      <c r="C4541" t="n">
+        <v>682503</v>
+      </c>
+      <c r="D4541" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4541" t="n">
+        <v>682503</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B4542" t="n">
+        <v>682503</v>
+      </c>
+      <c r="C4542" t="n">
+        <v>674158</v>
+      </c>
+      <c r="D4542" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4542" t="n">
+        <v>674158</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B4543" t="n">
+        <v>674158</v>
+      </c>
+      <c r="C4543" t="n">
+        <v>689999</v>
+      </c>
+      <c r="D4543" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4543" t="n">
+        <v>689999</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B4544" t="n">
+        <v>689999</v>
+      </c>
+      <c r="C4544" t="n">
+        <v>700881</v>
+      </c>
+      <c r="D4544" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4544" t="n">
+        <v>700881</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B4545" t="n">
+        <v>700881</v>
+      </c>
+      <c r="C4545" t="n">
+        <v>672142</v>
+      </c>
+      <c r="D4545" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4545" t="n">
+        <v>672142</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B4546" t="n">
+        <v>672142</v>
+      </c>
+      <c r="C4546" t="n">
+        <v>673174</v>
+      </c>
+      <c r="D4546" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4546" t="n">
+        <v>673174</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B4547" t="n">
+        <v>673174</v>
+      </c>
+      <c r="C4547" t="n">
+        <v>656889</v>
+      </c>
+      <c r="D4547" t="n">
+        <v>541843</v>
+      </c>
+      <c r="E4547" t="n">
+        <v>656889</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B4548" t="n">
+        <v>656889</v>
+      </c>
+      <c r="C4548" t="n">
+        <v>677935</v>
+      </c>
+      <c r="D4548" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4548" t="n">
+        <v>677935</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4549" t="n">
+        <v>677935</v>
+      </c>
+      <c r="C4549" t="n">
+        <v>675324</v>
+      </c>
+      <c r="D4549" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4549" t="n">
+        <v>675324</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B4550" t="n">
+        <v>675324</v>
+      </c>
+      <c r="C4550" t="n">
+        <v>678959</v>
+      </c>
+      <c r="D4550" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4550" t="n">
+        <v>678959</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B4551" t="n">
+        <v>678959</v>
+      </c>
+      <c r="C4551" t="n">
+        <v>700182</v>
+      </c>
+      <c r="D4551" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4551" t="n">
+        <v>700182</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B4552" t="n">
+        <v>700182</v>
+      </c>
+      <c r="C4552" t="n">
+        <v>701735</v>
+      </c>
+      <c r="D4552" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4552" t="n">
+        <v>701735</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B4553" t="n">
+        <v>701735</v>
+      </c>
+      <c r="C4553" t="n">
+        <v>743996</v>
+      </c>
+      <c r="D4553" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4553" t="n">
+        <v>743996</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B4554" t="n">
+        <v>743996</v>
+      </c>
+      <c r="C4554" t="n">
+        <v>713000</v>
+      </c>
+      <c r="D4554" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4554" t="n">
+        <v>713000</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B4555" t="n">
+        <v>713000</v>
+      </c>
+      <c r="C4555" t="n">
+        <v>697013</v>
+      </c>
+      <c r="D4555" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4555" t="n">
+        <v>697013</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B4556" t="n">
+        <v>697013</v>
+      </c>
+      <c r="C4556" t="n">
+        <v>702519</v>
+      </c>
+      <c r="D4556" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4556" t="n">
+        <v>702519</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B4557" t="n">
+        <v>702519</v>
+      </c>
+      <c r="C4557" t="n">
+        <v>815980</v>
+      </c>
+      <c r="D4557" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4557" t="n">
+        <v>815980</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B4558" t="n">
+        <v>815980</v>
+      </c>
+      <c r="C4558" t="n">
+        <v>857495</v>
+      </c>
+      <c r="D4558" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4558" t="n">
+        <v>857495</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B4559" t="n">
+        <v>857495</v>
+      </c>
+      <c r="C4559" t="n">
+        <v>841103</v>
+      </c>
+      <c r="D4559" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4559" t="n">
+        <v>841103</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B4560" t="n">
+        <v>841103</v>
+      </c>
+      <c r="C4560" t="n">
+        <v>828553</v>
+      </c>
+      <c r="D4560" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4560" t="n">
+        <v>828553</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B4561" t="n">
+        <v>828553</v>
+      </c>
+      <c r="C4561" t="n">
+        <v>819841</v>
+      </c>
+      <c r="D4561" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4561" t="n">
+        <v>819841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4561"/>
+  <dimension ref="A1:E4566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69672,6 +69672,91 @@
         <v>819841</v>
       </c>
     </row>
+    <row r="4562">
+      <c r="A4562" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B4562" t="n">
+        <v>828553</v>
+      </c>
+      <c r="C4562" t="n">
+        <v>819841</v>
+      </c>
+      <c r="D4562" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4562" t="n">
+        <v>819841</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B4563" t="n">
+        <v>819841</v>
+      </c>
+      <c r="C4563" t="n">
+        <v>834758</v>
+      </c>
+      <c r="D4563" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4563" t="n">
+        <v>834758</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4564" t="n">
+        <v>834758</v>
+      </c>
+      <c r="C4564" t="n">
+        <v>870378</v>
+      </c>
+      <c r="D4564" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4564" t="n">
+        <v>870378</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B4565" t="n">
+        <v>870378</v>
+      </c>
+      <c r="C4565" t="n">
+        <v>847717</v>
+      </c>
+      <c r="D4565" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4565" t="n">
+        <v>847717</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B4566" t="n">
+        <v>847717</v>
+      </c>
+      <c r="C4566" t="n">
+        <v>835081</v>
+      </c>
+      <c r="D4566" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4566" t="n">
+        <v>835081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4566"/>
+  <dimension ref="A1:E4582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69757,6 +69757,278 @@
         <v>835081</v>
       </c>
     </row>
+    <row r="4567">
+      <c r="A4567" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B4567" t="n">
+        <v>847717</v>
+      </c>
+      <c r="C4567" t="n">
+        <v>835081</v>
+      </c>
+      <c r="D4567" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4567" t="n">
+        <v>835081</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B4568" t="n">
+        <v>835081</v>
+      </c>
+      <c r="C4568" t="n">
+        <v>828313</v>
+      </c>
+      <c r="D4568" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4568" t="n">
+        <v>828313</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4569" t="n">
+        <v>828313</v>
+      </c>
+      <c r="C4569" t="n">
+        <v>837969</v>
+      </c>
+      <c r="D4569" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4569" t="n">
+        <v>837969</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4570" t="n">
+        <v>837969</v>
+      </c>
+      <c r="C4570" t="n">
+        <v>832412</v>
+      </c>
+      <c r="D4570" t="n">
+        <v>656889</v>
+      </c>
+      <c r="E4570" t="n">
+        <v>832412</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B4571" t="n">
+        <v>832412</v>
+      </c>
+      <c r="C4571" t="n">
+        <v>753008</v>
+      </c>
+      <c r="D4571" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4571" t="n">
+        <v>753008</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B4572" t="n">
+        <v>753008</v>
+      </c>
+      <c r="C4572" t="n">
+        <v>788127</v>
+      </c>
+      <c r="D4572" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4572" t="n">
+        <v>788127</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B4573" t="n">
+        <v>788127</v>
+      </c>
+      <c r="C4573" t="n">
+        <v>763377</v>
+      </c>
+      <c r="D4573" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4573" t="n">
+        <v>763377</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B4574" t="n">
+        <v>763377</v>
+      </c>
+      <c r="C4574" t="n">
+        <v>774170</v>
+      </c>
+      <c r="D4574" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4574" t="n">
+        <v>774170</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B4575" t="n">
+        <v>774170</v>
+      </c>
+      <c r="C4575" t="n">
+        <v>792916</v>
+      </c>
+      <c r="D4575" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4575" t="n">
+        <v>792916</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B4576" t="n">
+        <v>792916</v>
+      </c>
+      <c r="C4576" t="n">
+        <v>763459</v>
+      </c>
+      <c r="D4576" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4576" t="n">
+        <v>763459</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B4577" t="n">
+        <v>792916</v>
+      </c>
+      <c r="C4577" t="n">
+        <v>763459</v>
+      </c>
+      <c r="D4577" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4577" t="n">
+        <v>763459</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B4578" t="n">
+        <v>763459</v>
+      </c>
+      <c r="C4578" t="n">
+        <v>742861</v>
+      </c>
+      <c r="D4578" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4578" t="n">
+        <v>742861</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B4579" t="n">
+        <v>763459</v>
+      </c>
+      <c r="C4579" t="n">
+        <v>742861</v>
+      </c>
+      <c r="D4579" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4579" t="n">
+        <v>742861</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B4580" t="n">
+        <v>742861</v>
+      </c>
+      <c r="C4580" t="n">
+        <v>742834</v>
+      </c>
+      <c r="D4580" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4580" t="n">
+        <v>742834</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B4581" t="n">
+        <v>742834</v>
+      </c>
+      <c r="C4581" t="n">
+        <v>756859</v>
+      </c>
+      <c r="D4581" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4581" t="n">
+        <v>756859</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B4582" t="n">
+        <v>756859</v>
+      </c>
+      <c r="C4582" t="n">
+        <v>771735</v>
+      </c>
+      <c r="D4582" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4582" t="n">
+        <v>771735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4582"/>
+  <dimension ref="A1:E4586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70029,6 +70029,74 @@
         <v>771735</v>
       </c>
     </row>
+    <row r="4583">
+      <c r="A4583" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B4583" t="n">
+        <v>756859</v>
+      </c>
+      <c r="C4583" t="n">
+        <v>771735</v>
+      </c>
+      <c r="D4583" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4583" t="n">
+        <v>771735</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B4584" t="n">
+        <v>771735</v>
+      </c>
+      <c r="C4584" t="n">
+        <v>669976</v>
+      </c>
+      <c r="D4584" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4584" t="n">
+        <v>669976</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B4585" t="n">
+        <v>669976</v>
+      </c>
+      <c r="C4585" t="n">
+        <v>699261</v>
+      </c>
+      <c r="D4585" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4585" t="n">
+        <v>699261</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B4586" t="n">
+        <v>699261</v>
+      </c>
+      <c r="C4586" t="n">
+        <v>702626</v>
+      </c>
+      <c r="D4586" t="n">
+        <v>832412</v>
+      </c>
+      <c r="E4586" t="n">
+        <v>702626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4589"/>
+  <dimension ref="A1:E4594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -65940,6 +65940,91 @@
         <v>728200</v>
       </c>
     </row>
+    <row r="4590" spans="1:5">
+      <c r="A4590" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B4590">
+        <v>713770</v>
+      </c>
+      <c r="C4590">
+        <v>728200</v>
+      </c>
+      <c r="D4590">
+        <v>832412</v>
+      </c>
+      <c r="E4590">
+        <v>728200</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:5">
+      <c r="A4591" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B4591">
+        <v>728200</v>
+      </c>
+      <c r="C4591">
+        <v>693007</v>
+      </c>
+      <c r="D4591">
+        <v>832412</v>
+      </c>
+      <c r="E4591">
+        <v>693007</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:5">
+      <c r="A4592" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B4592">
+        <v>693007</v>
+      </c>
+      <c r="C4592">
+        <v>741224</v>
+      </c>
+      <c r="D4592">
+        <v>832412</v>
+      </c>
+      <c r="E4592">
+        <v>741224</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:5">
+      <c r="A4593" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B4593">
+        <v>741224</v>
+      </c>
+      <c r="C4593">
+        <v>753486</v>
+      </c>
+      <c r="D4593">
+        <v>832412</v>
+      </c>
+      <c r="E4593">
+        <v>753486</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:5">
+      <c r="A4594" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B4594">
+        <v>753486</v>
+      </c>
+      <c r="C4594">
+        <v>750724</v>
+      </c>
+      <c r="D4594">
+        <v>832412</v>
+      </c>
+      <c r="E4594">
+        <v>750724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4594"/>
+  <dimension ref="A1:E4604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66025,6 +66025,176 @@
         <v>750724</v>
       </c>
     </row>
+    <row r="4595" spans="1:5">
+      <c r="A4595" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B4595">
+        <v>753486</v>
+      </c>
+      <c r="C4595">
+        <v>750724</v>
+      </c>
+      <c r="D4595">
+        <v>832412</v>
+      </c>
+      <c r="E4595">
+        <v>750724</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:5">
+      <c r="A4596" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B4596">
+        <v>750724</v>
+      </c>
+      <c r="C4596">
+        <v>753570</v>
+      </c>
+      <c r="D4596">
+        <v>832412</v>
+      </c>
+      <c r="E4596">
+        <v>753570</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:5">
+      <c r="A4597" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B4597">
+        <v>753570</v>
+      </c>
+      <c r="C4597">
+        <v>758851</v>
+      </c>
+      <c r="D4597">
+        <v>832412</v>
+      </c>
+      <c r="E4597">
+        <v>758851</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:5">
+      <c r="A4598" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B4598">
+        <v>753570</v>
+      </c>
+      <c r="C4598">
+        <v>758851</v>
+      </c>
+      <c r="D4598">
+        <v>832412</v>
+      </c>
+      <c r="E4598">
+        <v>758851</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:5">
+      <c r="A4599" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B4599">
+        <v>758851</v>
+      </c>
+      <c r="C4599">
+        <v>668199</v>
+      </c>
+      <c r="D4599">
+        <v>758851</v>
+      </c>
+      <c r="E4599">
+        <v>668199</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:5">
+      <c r="A4600" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B4600">
+        <v>758851</v>
+      </c>
+      <c r="C4600">
+        <v>668199</v>
+      </c>
+      <c r="D4600">
+        <v>758851</v>
+      </c>
+      <c r="E4600">
+        <v>668199</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:5">
+      <c r="A4601" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B4601">
+        <v>668199</v>
+      </c>
+      <c r="C4601">
+        <v>681693</v>
+      </c>
+      <c r="D4601">
+        <v>758851</v>
+      </c>
+      <c r="E4601">
+        <v>681693</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:5">
+      <c r="A4602" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B4602">
+        <v>668199</v>
+      </c>
+      <c r="C4602">
+        <v>681693</v>
+      </c>
+      <c r="D4602">
+        <v>758851</v>
+      </c>
+      <c r="E4602">
+        <v>681693</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:5">
+      <c r="A4603" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B4603">
+        <v>681693</v>
+      </c>
+      <c r="C4603">
+        <v>664742</v>
+      </c>
+      <c r="D4603">
+        <v>758851</v>
+      </c>
+      <c r="E4603">
+        <v>664742</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:5">
+      <c r="A4604" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B4604">
+        <v>664742</v>
+      </c>
+      <c r="C4604">
+        <v>667678</v>
+      </c>
+      <c r="D4604">
+        <v>758851</v>
+      </c>
+      <c r="E4604">
+        <v>667678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4625"/>
+  <dimension ref="A1:E4637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66552,6 +66552,210 @@
         <v>724973</v>
       </c>
     </row>
+    <row r="4626" spans="1:5">
+      <c r="A4626" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B4626">
+        <v>713064</v>
+      </c>
+      <c r="C4626">
+        <v>724973</v>
+      </c>
+      <c r="D4626">
+        <v>758851</v>
+      </c>
+      <c r="E4626">
+        <v>724973</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:5">
+      <c r="A4627" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B4627">
+        <v>724973</v>
+      </c>
+      <c r="C4627">
+        <v>768590</v>
+      </c>
+      <c r="D4627">
+        <v>758851</v>
+      </c>
+      <c r="E4627">
+        <v>768590</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:5">
+      <c r="A4628" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B4628">
+        <v>768590</v>
+      </c>
+      <c r="C4628">
+        <v>766340</v>
+      </c>
+      <c r="D4628">
+        <v>768590</v>
+      </c>
+      <c r="E4628">
+        <v>766340</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:5">
+      <c r="A4629" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B4629">
+        <v>768590</v>
+      </c>
+      <c r="C4629">
+        <v>766340</v>
+      </c>
+      <c r="D4629">
+        <v>768590</v>
+      </c>
+      <c r="E4629">
+        <v>766340</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:5">
+      <c r="A4630" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B4630">
+        <v>766340</v>
+      </c>
+      <c r="C4630">
+        <v>743464</v>
+      </c>
+      <c r="D4630">
+        <v>768590</v>
+      </c>
+      <c r="E4630">
+        <v>743464</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:5">
+      <c r="A4631" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B4631">
+        <v>766340</v>
+      </c>
+      <c r="C4631">
+        <v>743464</v>
+      </c>
+      <c r="D4631">
+        <v>768590</v>
+      </c>
+      <c r="E4631">
+        <v>743464</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:5">
+      <c r="A4632" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B4632">
+        <v>743464</v>
+      </c>
+      <c r="C4632">
+        <v>753179</v>
+      </c>
+      <c r="D4632">
+        <v>768590</v>
+      </c>
+      <c r="E4632">
+        <v>753179</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:5">
+      <c r="A4633" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B4633">
+        <v>753179</v>
+      </c>
+      <c r="C4633">
+        <v>747982</v>
+      </c>
+      <c r="D4633">
+        <v>768590</v>
+      </c>
+      <c r="E4633">
+        <v>747982</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:5">
+      <c r="A4634" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B4634">
+        <v>747982</v>
+      </c>
+      <c r="C4634">
+        <v>758566</v>
+      </c>
+      <c r="D4634">
+        <v>768590</v>
+      </c>
+      <c r="E4634">
+        <v>758566</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:5">
+      <c r="A4635" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B4635">
+        <v>747982</v>
+      </c>
+      <c r="C4635">
+        <v>758566</v>
+      </c>
+      <c r="D4635">
+        <v>768590</v>
+      </c>
+      <c r="E4635">
+        <v>758566</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:5">
+      <c r="A4636" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B4636">
+        <v>758566</v>
+      </c>
+      <c r="C4636">
+        <v>749407</v>
+      </c>
+      <c r="D4636">
+        <v>768590</v>
+      </c>
+      <c r="E4636">
+        <v>749407</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:5">
+      <c r="A4637" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B4637">
+        <v>749407</v>
+      </c>
+      <c r="C4637">
+        <v>727856</v>
+      </c>
+      <c r="D4637">
+        <v>768590</v>
+      </c>
+      <c r="E4637">
+        <v>727856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
+++ b/NetLiquidity/TreasuryData/TGA_Since2005.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4660"/>
+  <dimension ref="A1:E4667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -67147,6 +67147,125 @@
         <v>832976</v>
       </c>
     </row>
+    <row r="4661" spans="1:5">
+      <c r="A4661" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B4661">
+        <v>821575</v>
+      </c>
+      <c r="C4661">
+        <v>832976</v>
+      </c>
+      <c r="D4661">
+        <v>865481</v>
+      </c>
+      <c r="E4661">
+        <v>832976</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:5">
+      <c r="A4662" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B4662">
+        <v>832976</v>
+      </c>
+      <c r="C4662">
+        <v>831940</v>
+      </c>
+      <c r="D4662">
+        <v>865481</v>
+      </c>
+      <c r="E4662">
+        <v>831940</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:5">
+      <c r="A4663" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B4663">
+        <v>831940</v>
+      </c>
+      <c r="C4663">
+        <v>845004</v>
+      </c>
+      <c r="D4663">
+        <v>865481</v>
+      </c>
+      <c r="E4663">
+        <v>845004</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:5">
+      <c r="A4664" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B4664">
+        <v>845004</v>
+      </c>
+      <c r="C4664">
+        <v>860356</v>
+      </c>
+      <c r="D4664">
+        <v>865481</v>
+      </c>
+      <c r="E4664">
+        <v>860356</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:5">
+      <c r="A4665" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B4665">
+        <v>860356</v>
+      </c>
+      <c r="C4665">
+        <v>831880</v>
+      </c>
+      <c r="D4665">
+        <v>865481</v>
+      </c>
+      <c r="E4665">
+        <v>831880</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:5">
+      <c r="A4666" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B4666">
+        <v>831880</v>
+      </c>
+      <c r="C4666">
+        <v>768884</v>
+      </c>
+      <c r="D4666">
+        <v>865481</v>
+      </c>
+      <c r="E4666">
+        <v>768884</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:5">
+      <c r="A4667" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B4667">
+        <v>768884</v>
+      </c>
+      <c r="C4667">
+        <v>779746</v>
+      </c>
+      <c r="D4667">
+        <v>865481</v>
+      </c>
+      <c r="E4667">
+        <v>779746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
